--- a/data/调控效果.xlsx
+++ b/data/调控效果.xlsx
@@ -517,7 +517,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -1267,7 +1267,7 @@
         <v>297</v>
       </c>
       <c r="C25" s="2">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="D25" s="2">
         <v>706112169142</v>
@@ -1281,11 +1281,11 @@
       </c>
       <c r="G25" s="2">
         <f t="shared" si="1"/>
-        <v>1.0774410774410774</v>
+        <v>1.037037037037037</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="2"/>
-        <v>6097.0031250000002</v>
+        <v>6334.5487012987014</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">

--- a/data/调控效果.xlsx
+++ b/data/调控效果.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>base</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -148,6 +149,10 @@
   </si>
   <si>
     <t>povray</t>
+  </si>
+  <si>
+    <t>fake</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -220,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,6 +239,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -516,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -1380,4 +1386,660 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
+        <v>393.66666666666669</v>
+      </c>
+      <c r="C2" s="1">
+        <v>410</v>
+      </c>
+      <c r="D2" s="1">
+        <v>919676352106</v>
+      </c>
+      <c r="E2" s="1">
+        <v>963274</v>
+      </c>
+      <c r="F2" s="1">
+        <f>E2/D2</f>
+        <v>1.0474054245215333E-6</v>
+      </c>
+      <c r="G2" s="1">
+        <f>C2/B2</f>
+        <v>1.0414902624894158</v>
+      </c>
+      <c r="H2" s="1">
+        <f>E2/C2</f>
+        <v>2349.4487804878049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>387</v>
+      </c>
+      <c r="C3" s="1">
+        <v>401</v>
+      </c>
+      <c r="D3" s="1">
+        <v>415918954102</v>
+      </c>
+      <c r="E3" s="1">
+        <v>804069</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F17" si="0">E3/D3</f>
+        <v>1.9332348094980303E-6</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G17" si="1">C3/B3</f>
+        <v>1.0361757105943152</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H17" si="2">E3/C3</f>
+        <v>2005.1596009975062</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>310</v>
+      </c>
+      <c r="C4" s="1">
+        <v>314</v>
+      </c>
+      <c r="D4" s="1">
+        <v>141615909595</v>
+      </c>
+      <c r="E4" s="1">
+        <v>252514</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7830906197061594E-6</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0129032258064516</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="2"/>
+        <v>804.18471337579615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
+        <v>593</v>
+      </c>
+      <c r="C5" s="1">
+        <v>610</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1950945925677</v>
+      </c>
+      <c r="E5" s="1">
+        <v>491267</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5180964450848368E-7</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0286677908937605</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="2"/>
+        <v>805.35573770491806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1">
+        <v>198.66666666666666</v>
+      </c>
+      <c r="C6" s="1">
+        <v>202</v>
+      </c>
+      <c r="D6" s="1">
+        <v>261701955712</v>
+      </c>
+      <c r="E6" s="1">
+        <v>243755</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3142215669282033E-7</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0167785234899329</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>1206.7079207920792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1">
+        <v>194</v>
+      </c>
+      <c r="C7" s="1">
+        <v>286</v>
+      </c>
+      <c r="D7" s="1">
+        <v>252063873442</v>
+      </c>
+      <c r="E7" s="1">
+        <v>854376</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>3.3895218237078798E-6</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4742268041237114</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>2987.3286713286711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
+        <v>310.33333333333331</v>
+      </c>
+      <c r="C8" s="3">
+        <v>328</v>
+      </c>
+      <c r="D8" s="3">
+        <v>565136276749</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5661455</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0017858051102393E-5</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0569280343716434</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="2"/>
+        <v>17260.533536585364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <v>345</v>
+      </c>
+      <c r="C9" s="2">
+        <v>341</v>
+      </c>
+      <c r="D9" s="2">
+        <v>924975226772</v>
+      </c>
+      <c r="E9" s="2">
+        <v>323966</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5024289367249763E-7</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.98840579710144927</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>950.04692082111433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2">
+        <v>444</v>
+      </c>
+      <c r="C10" s="2">
+        <v>463</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1458977398134</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1014988</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>6.9568452622922559E-7</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0427927927927927</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>2192.1987041036718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2">
+        <v>231</v>
+      </c>
+      <c r="C11" s="2">
+        <v>235</v>
+      </c>
+      <c r="D11" s="2">
+        <v>430053564848</v>
+      </c>
+      <c r="E11" s="2">
+        <v>126532</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9422381382821935E-7</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0173160173160174</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>538.43404255319149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="2">
+        <v>350</v>
+      </c>
+      <c r="C12" s="2">
+        <v>352</v>
+      </c>
+      <c r="D12" s="2">
+        <v>587016388172</v>
+      </c>
+      <c r="E12" s="2">
+        <v>350000</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>5.9623548345884936E-7</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0057142857142858</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="2"/>
+        <v>994.31818181818187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2">
+        <v>216</v>
+      </c>
+      <c r="C13" s="2">
+        <v>219</v>
+      </c>
+      <c r="D13" s="2">
+        <v>348995314627</v>
+      </c>
+      <c r="E13" s="2">
+        <v>427950</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2262342274061341E-6</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0138888888888888</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>1954.1095890410959</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2">
+        <v>593</v>
+      </c>
+      <c r="C14" s="2">
+        <v>609</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1786284043936</v>
+      </c>
+      <c r="E14" s="2">
+        <v>239440</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3404363142180024E-7</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0269814502529511</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="2"/>
+        <v>393.16912972085385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2">
+        <v>328</v>
+      </c>
+      <c r="C15" s="2">
+        <v>332</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1616169743472</v>
+      </c>
+      <c r="E15" s="2">
+        <v>47249</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>2.923517173294897E-8</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0121951219512195</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="2"/>
+        <v>142.31626506024097</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
+        <v>385.66666666666669</v>
+      </c>
+      <c r="C16" s="2">
+        <v>391</v>
+      </c>
+      <c r="D16" s="2">
+        <v>775717415435</v>
+      </c>
+      <c r="E16" s="2">
+        <v>675898</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>8.7131987312799453E-7</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.013828867761452</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="2"/>
+        <v>1728.6393861892584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2">
+        <v>323.33333333333331</v>
+      </c>
+      <c r="C17" s="2">
+        <v>330</v>
+      </c>
+      <c r="D17" s="2">
+        <v>311382484711</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1944014</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>6.2431706838111859E-6</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0206185567010311</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="2"/>
+        <v>5890.9515151515152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2">
+        <v>393</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2">
+        <v>496.66666666666669</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2">
+        <v>265.33333333333331</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1">
+        <v>430.66666666666669</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="3">
+        <v>605</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="3">
+        <v>355</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="3">
+        <v>297</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="3">
+        <v>304</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="3">
+        <v>334</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="3">
+        <v>123</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/调控效果.xlsx
+++ b/data/调控效果.xlsx
@@ -1392,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.35"/>
@@ -1479,15 +1479,15 @@
         <v>804069</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F17" si="0">E3/D3</f>
+        <f t="shared" ref="F3:F27" si="0">E3/D3</f>
         <v>1.9332348094980303E-6</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G17" si="1">C3/B3</f>
+        <f t="shared" ref="G3:G27" si="1">C3/B3</f>
         <v>1.0361757105943152</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H17" si="2">E3/C3</f>
+        <f t="shared" ref="H3:H27" si="2">E3/C3</f>
         <v>2005.1596009975062</v>
       </c>
     </row>
@@ -1904,12 +1904,27 @@
       <c r="B18" s="2">
         <v>393</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="C18" s="2">
+        <v>398</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2008644655813</v>
+      </c>
+      <c r="E18" s="2">
+        <v>138959</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>6.918047928380656E-8</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0127226463104326</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="2"/>
+        <v>349.143216080402</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
@@ -1918,12 +1933,27 @@
       <c r="B19" s="2">
         <v>496.66666666666669</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="C19" s="2">
+        <v>504</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1089441692671</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1131160</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0382932905998104E-6</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0147651006711409</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="2"/>
+        <v>2244.3650793650795</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
@@ -1932,12 +1962,27 @@
       <c r="B20" s="2">
         <v>265.33333333333331</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="C20" s="2">
+        <v>271</v>
+      </c>
+      <c r="D20" s="2">
+        <v>257956548963</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2105139</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>8.160827893157893E-6</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0213567839195981</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="2"/>
+        <v>7768.0405904059044</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
@@ -1946,12 +1991,27 @@
       <c r="B21" s="1">
         <v>430.66666666666669</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="C21" s="2">
+        <v>441</v>
+      </c>
+      <c r="D21" s="2">
+        <v>926744597972</v>
+      </c>
+      <c r="E21" s="2">
+        <v>830596</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>8.9625124529195803E-7</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0239938080495357</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="2"/>
+        <v>1883.4376417233559</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
@@ -1960,12 +2020,27 @@
       <c r="B22" s="3">
         <v>605</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="1"/>
+      <c r="C22" s="2">
+        <v>611</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2336828668645</v>
+      </c>
+      <c r="E22" s="2">
+        <v>81827</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5016259898697253E-8</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0099173553719007</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="2"/>
+        <v>133.92307692307693</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
@@ -1974,12 +2049,27 @@
       <c r="B23" s="3">
         <v>355</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="1"/>
+      <c r="C23" s="2">
+        <v>357</v>
+      </c>
+      <c r="D23" s="2">
+        <v>995277318308</v>
+      </c>
+      <c r="E23" s="2">
+        <v>49406</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9640435978177036E-8</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0056338028169014</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="2"/>
+        <v>138.39215686274511</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
@@ -1988,12 +2078,27 @@
       <c r="B24" s="3">
         <v>297</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="1"/>
+      <c r="C24" s="2">
+        <v>300</v>
+      </c>
+      <c r="D24" s="2">
+        <v>705927534030</v>
+      </c>
+      <c r="E24" s="2">
+        <v>425725</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>6.0307181612483734E-7</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0101010101010102</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="2"/>
+        <v>1419.0833333333333</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
@@ -2002,12 +2107,27 @@
       <c r="B25" s="3">
         <v>304</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="1"/>
+      <c r="C25" s="2">
+        <v>306</v>
+      </c>
+      <c r="D25" s="2">
+        <v>695503776830</v>
+      </c>
+      <c r="E25" s="2">
+        <v>73347</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0545880905824038E-7</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="1"/>
+        <v>1.006578947368421</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="2"/>
+        <v>239.69607843137254</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
@@ -2016,12 +2136,27 @@
       <c r="B26" s="3">
         <v>334</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="1"/>
+      <c r="C26" s="2">
+        <v>337</v>
+      </c>
+      <c r="D26" s="2">
+        <v>666467380871</v>
+      </c>
+      <c r="E26" s="2">
+        <v>328979</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9361605600271149E-7</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0089820359281436</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="2"/>
+        <v>976.19881305637978</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
@@ -2030,12 +2165,27 @@
       <c r="B27" s="3">
         <v>123</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="1"/>
+      <c r="C27" s="2">
+        <v>126</v>
+      </c>
+      <c r="D27" s="2">
+        <v>495580619361</v>
+      </c>
+      <c r="E27" s="2">
+        <v>4392</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8623320372435674E-9</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="1"/>
+        <v>1.024390243902439</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="2"/>
+        <v>34.857142857142854</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
